--- a/atomica/library/usdt_databook.xlsx
+++ b/atomica/library/usdt_databook.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27967026-7CD9-154D-8C22-C6E0E917A3CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D9FD8E-C99E-45D0-8829-55F74DA65ACF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16200" windowHeight="13660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="16200" windowHeight="13665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,6 +36,12 @@
     <t>Full Name</t>
   </si>
   <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
     <t>All people with condition</t>
   </si>
   <si>
@@ -63,12 +76,6 @@
   </si>
   <si>
     <t>Annual number lost to follow-up</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>Adults</t>
   </si>
 </sst>
 </file>
@@ -76,8 +83,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -143,7 +150,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -156,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -604,12 +611,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,12 +624,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -641,24 +648,24 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -671,17 +678,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
@@ -689,15 +696,15 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -710,17 +717,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4">
@@ -728,15 +735,15 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -749,17 +756,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -767,15 +774,15 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -788,17 +795,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
@@ -806,15 +813,15 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -827,17 +834,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
@@ -845,15 +852,15 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
@@ -866,17 +873,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
@@ -884,15 +891,15 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -905,17 +912,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
@@ -923,15 +930,15 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
@@ -944,17 +951,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
@@ -1028,7 +1035,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B23 B20 B17 B14 B11 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B23 B20 B17 B14 B11 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"number"</formula1>
     </dataValidation>
   </dataValidations>
